--- a/上证50ETF_指数价差走势.xlsx
+++ b/上证50ETF_指数价差走势.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\东方工作\期权业务\期权每日交易\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="495" windowWidth="4770" windowHeight="2010" activeTab="5"/>
   </bookViews>
@@ -17,7 +22,7 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -27,7 +32,7 @@
     <author>Yuchuan Dang</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +72,7 @@
     <author>Yuchuan Dang</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +112,7 @@
     <author>Yuchuan Dang</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +152,7 @@
     <author>Yuchuan Dang</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +192,7 @@
     <author>Yuchuan Dang</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +232,7 @@
     <author>Yuchuan Dang</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -346,10 +351,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.0000"/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="62" x14ac:knownFonts="1">
     <font>
@@ -3505,15 +3510,14 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="776">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="44"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="45"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="294"/>
@@ -3529,7 +3533,6 @@
     <cellStyle name="20% - 强调文字颜色 1 5" xfId="48"/>
     <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="297"/>
     <cellStyle name="20% - 强调文字颜色 1 5 2 2" xfId="548"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="49"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="50"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="299"/>
@@ -3545,7 +3548,6 @@
     <cellStyle name="20% - 强调文字颜色 2 5" xfId="53"/>
     <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="302"/>
     <cellStyle name="20% - 强调文字颜色 2 5 2 2" xfId="553"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="54"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="55"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="304"/>
@@ -3561,7 +3563,6 @@
     <cellStyle name="20% - 强调文字颜色 3 5" xfId="58"/>
     <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="307"/>
     <cellStyle name="20% - 强调文字颜色 3 5 2 2" xfId="558"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 4 2" xfId="59"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="60"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="309"/>
@@ -3577,7 +3578,6 @@
     <cellStyle name="20% - 强调文字颜色 4 5" xfId="63"/>
     <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="312"/>
     <cellStyle name="20% - 强调文字颜色 4 5 2 2" xfId="563"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="64"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="65"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="314"/>
@@ -3593,7 +3593,6 @@
     <cellStyle name="20% - 强调文字颜色 5 5" xfId="68"/>
     <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="317"/>
     <cellStyle name="20% - 强调文字颜色 5 5 2 2" xfId="568"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="69"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="70"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="319"/>
@@ -3609,7 +3608,12 @@
     <cellStyle name="20% - 强调文字颜色 6 5" xfId="73"/>
     <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="322"/>
     <cellStyle name="20% - 强调文字颜色 6 5 2 2" xfId="573"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="74"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="75"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="324"/>
@@ -3625,7 +3629,6 @@
     <cellStyle name="40% - 强调文字颜色 1 5" xfId="78"/>
     <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="327"/>
     <cellStyle name="40% - 强调文字颜色 1 5 2 2" xfId="578"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 2 2" xfId="79"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="80"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="329"/>
@@ -3641,7 +3644,6 @@
     <cellStyle name="40% - 强调文字颜色 2 5" xfId="83"/>
     <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="332"/>
     <cellStyle name="40% - 强调文字颜色 2 5 2 2" xfId="583"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="84"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="85"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="334"/>
@@ -3657,7 +3659,6 @@
     <cellStyle name="40% - 强调文字颜色 3 5" xfId="88"/>
     <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="337"/>
     <cellStyle name="40% - 强调文字颜色 3 5 2 2" xfId="588"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="89"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="90"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="339"/>
@@ -3673,7 +3674,6 @@
     <cellStyle name="40% - 强调文字颜色 4 5" xfId="93"/>
     <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="342"/>
     <cellStyle name="40% - 强调文字颜色 4 5 2 2" xfId="593"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="94"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="95"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="344"/>
@@ -3689,7 +3689,6 @@
     <cellStyle name="40% - 强调文字颜色 5 5" xfId="98"/>
     <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="347"/>
     <cellStyle name="40% - 强调文字颜色 5 5 2 2" xfId="598"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="99"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="100"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="349"/>
@@ -3705,7 +3704,12 @@
     <cellStyle name="40% - 强调文字颜色 6 5" xfId="103"/>
     <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="352"/>
     <cellStyle name="40% - 强调文字颜色 6 5 2 2" xfId="603"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="104"/>
     <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="105"/>
     <cellStyle name="60% - 强调文字颜色 1 2 2 2" xfId="354"/>
@@ -3721,7 +3725,6 @@
     <cellStyle name="60% - 强调文字颜色 1 5" xfId="108"/>
     <cellStyle name="60% - 强调文字颜色 1 5 2" xfId="357"/>
     <cellStyle name="60% - 强调文字颜色 1 5 2 2" xfId="608"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 2 2" xfId="109"/>
     <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="110"/>
     <cellStyle name="60% - 强调文字颜色 2 2 2 2" xfId="359"/>
@@ -3737,7 +3740,6 @@
     <cellStyle name="60% - 强调文字颜色 2 5" xfId="113"/>
     <cellStyle name="60% - 强调文字颜色 2 5 2" xfId="362"/>
     <cellStyle name="60% - 强调文字颜色 2 5 2 2" xfId="613"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="114"/>
     <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="115"/>
     <cellStyle name="60% - 强调文字颜色 3 2 2 2" xfId="364"/>
@@ -3753,7 +3755,6 @@
     <cellStyle name="60% - 强调文字颜色 3 5" xfId="118"/>
     <cellStyle name="60% - 强调文字颜色 3 5 2" xfId="367"/>
     <cellStyle name="60% - 强调文字颜色 3 5 2 2" xfId="618"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 4 2" xfId="119"/>
     <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="120"/>
     <cellStyle name="60% - 强调文字颜色 4 2 2 2" xfId="369"/>
@@ -3769,7 +3770,6 @@
     <cellStyle name="60% - 强调文字颜色 4 5" xfId="123"/>
     <cellStyle name="60% - 强调文字颜色 4 5 2" xfId="372"/>
     <cellStyle name="60% - 强调文字颜色 4 5 2 2" xfId="623"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 5 2" xfId="124"/>
     <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="125"/>
     <cellStyle name="60% - 强调文字颜色 5 2 2 2" xfId="374"/>
@@ -3785,7 +3785,6 @@
     <cellStyle name="60% - 强调文字颜色 5 5" xfId="128"/>
     <cellStyle name="60% - 强调文字颜色 5 5 2" xfId="377"/>
     <cellStyle name="60% - 强调文字颜色 5 5 2 2" xfId="628"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="129"/>
     <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="130"/>
     <cellStyle name="60% - 强调文字颜色 6 2 2 2" xfId="379"/>
@@ -3801,6 +3800,12 @@
     <cellStyle name="60% - 强调文字颜色 6 5" xfId="133"/>
     <cellStyle name="60% - 强调文字颜色 6 5 2" xfId="382"/>
     <cellStyle name="60% - 强调文字颜色 6 5 2 2" xfId="633"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 1 2" xfId="136"/>
@@ -4105,7 +4110,6 @@
     <cellStyle name="链接单元格 7" xfId="227"/>
     <cellStyle name="链接单元格 8" xfId="475"/>
     <cellStyle name="链接单元格 8 2" xfId="710"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 1 2" xfId="234"/>
     <cellStyle name="强调文字颜色 1 2 2" xfId="235"/>
     <cellStyle name="强调文字颜色 1 2 2 2" xfId="483"/>
@@ -4121,7 +4125,6 @@
     <cellStyle name="强调文字颜色 1 5" xfId="238"/>
     <cellStyle name="强调文字颜色 1 5 2" xfId="486"/>
     <cellStyle name="强调文字颜色 1 5 2 2" xfId="721"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 2 2" xfId="239"/>
     <cellStyle name="强调文字颜色 2 2 2" xfId="240"/>
     <cellStyle name="强调文字颜色 2 2 2 2" xfId="488"/>
@@ -4137,7 +4140,6 @@
     <cellStyle name="强调文字颜色 2 5" xfId="243"/>
     <cellStyle name="强调文字颜色 2 5 2" xfId="491"/>
     <cellStyle name="强调文字颜色 2 5 2 2" xfId="726"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 3 2" xfId="244"/>
     <cellStyle name="强调文字颜色 3 2 2" xfId="245"/>
     <cellStyle name="强调文字颜色 3 2 2 2" xfId="493"/>
@@ -4153,7 +4155,6 @@
     <cellStyle name="强调文字颜色 3 5" xfId="248"/>
     <cellStyle name="强调文字颜色 3 5 2" xfId="496"/>
     <cellStyle name="强调文字颜色 3 5 2 2" xfId="731"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 4 2" xfId="249"/>
     <cellStyle name="强调文字颜色 4 2 2" xfId="250"/>
     <cellStyle name="强调文字颜色 4 2 2 2" xfId="498"/>
@@ -4169,7 +4170,6 @@
     <cellStyle name="强调文字颜色 4 5" xfId="253"/>
     <cellStyle name="强调文字颜色 4 5 2" xfId="501"/>
     <cellStyle name="强调文字颜色 4 5 2 2" xfId="736"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 5 2" xfId="254"/>
     <cellStyle name="强调文字颜色 5 2 2" xfId="255"/>
     <cellStyle name="强调文字颜色 5 2 2 2" xfId="503"/>
@@ -4185,7 +4185,6 @@
     <cellStyle name="强调文字颜色 5 5" xfId="258"/>
     <cellStyle name="强调文字颜色 5 5 2" xfId="506"/>
     <cellStyle name="强调文字颜色 5 5 2 2" xfId="741"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 6 2" xfId="259"/>
     <cellStyle name="强调文字颜色 6 2 2" xfId="260"/>
     <cellStyle name="强调文字颜色 6 2 2 2" xfId="508"/>
@@ -4267,6 +4266,12 @@
     <cellStyle name="输入 7" xfId="278"/>
     <cellStyle name="输入 8" xfId="526"/>
     <cellStyle name="输入 8 2" xfId="761"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="注释 2" xfId="286"/>
     <cellStyle name="注释 2 2" xfId="287"/>
@@ -4296,12 +4301,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -5820,6 +5828,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5BE-473C-957A-24AA7E555BB3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7321,6 +7334,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A5BE-473C-957A-24AA7E555BB3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7330,7 +7348,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="403360256"/>
         <c:axId val="403272768"/>
@@ -7371,7 +7388,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7387,7 +7403,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -8906,6 +8922,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF9B-445C-BF0E-428B9ADDCE58}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -10407,6 +10428,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF9B-445C-BF0E-428B9ADDCE58}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10416,7 +10442,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="405934080"/>
         <c:axId val="414396352"/>
@@ -10457,7 +10482,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10473,7 +10497,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -11992,6 +12016,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D847-4704-8624-319326588446}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -13493,6 +13522,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D847-4704-8624-319326588446}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -13502,7 +13536,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="408120832"/>
         <c:axId val="426639936"/>
@@ -13543,7 +13576,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13559,7 +13591,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -15078,6 +15110,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADB2-42C0-AC1C-A1B17C3D6692}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -16579,6 +16616,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ADB2-42C0-AC1C-A1B17C3D6692}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -16588,7 +16630,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="409236480"/>
         <c:axId val="426645120"/>
@@ -16631,7 +16672,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -16647,7 +16687,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -18130,6 +18170,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5135-401F-884B-6D596A62A57A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -19595,6 +19640,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5135-401F-884B-6D596A62A57A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -19604,7 +19654,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="409235456"/>
         <c:axId val="438829056"/>
@@ -19647,7 +19696,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -19663,7 +19711,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -21176,6 +21224,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6927-4959-868F-EEFA9FCFC0BB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -22671,6 +22724,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6927-4959-868F-EEFA9FCFC0BB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -22680,7 +22738,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="409238528"/>
         <c:axId val="438836544"/>
@@ -22723,7 +22780,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -23022,7 +23078,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -23057,7 +23113,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
